--- a/src/test/java/resources/AP_TestData.xlsx
+++ b/src/test/java/resources/AP_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpanchal\IdeaProjects\FusionInternalProject\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5141DB-56FB-42B5-9E16-593EE56885B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6EFF47-5C0C-45A1-AA52-C6D6B5BC4154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFB41541-69CB-4A6D-BB8E-FE5ADF235096}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>itemName</t>
   </si>
@@ -531,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68003E9C-3D59-458D-9865-8AC5272D06CC}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,6 +735,95 @@
         <v>04/24/25</v>
       </c>
     </row>
+    <row r="3" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
+        <v>04/24/25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3">
+        <v>1234</v>
+      </c>
+      <c r="I3">
+        <v>1234</v>
+      </c>
+      <c r="J3">
+        <v>1234</v>
+      </c>
+      <c r="K3">
+        <v>1234</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
+        <v>04/24/25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
+        <v>04/24/25</v>
+      </c>
+      <c r="R3">
+        <v>100</v>
+      </c>
+      <c r="S3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="1" t="str">
+        <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
+        <v>04/24/25</v>
+      </c>
+      <c r="U3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="1" t="str">
+        <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
+        <v>04/24/25</v>
+      </c>
+      <c r="AA3" s="1" t="str">
+        <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
+        <v>04/24/25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/resources/AP_TestData.xlsx
+++ b/src/test/java/resources/AP_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpanchal\IdeaProjects\FusionInternalProject\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6EFF47-5C0C-45A1-AA52-C6D6B5BC4154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBF8D46-D2EE-4707-B229-DEEFD442366A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFB41541-69CB-4A6D-BB8E-FE5ADF235096}"/>
   </bookViews>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68003E9C-3D59-458D-9865-8AC5272D06CC}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +658,7 @@
       </c>
       <c r="D2" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/24/25</v>
+        <v>04/25/25</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -692,14 +692,14 @@
       </c>
       <c r="O2" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/24/25</v>
+        <v>04/25/25</v>
       </c>
       <c r="P2" t="s">
         <v>31</v>
       </c>
       <c r="Q2" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/24/25</v>
+        <v>04/25/25</v>
       </c>
       <c r="R2">
         <v>50</v>
@@ -709,7 +709,7 @@
       </c>
       <c r="T2" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/24/25</v>
+        <v>04/25/25</v>
       </c>
       <c r="U2" t="s">
         <v>30</v>
@@ -728,11 +728,11 @@
       </c>
       <c r="Z2" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/24/25</v>
+        <v>04/25/25</v>
       </c>
       <c r="AA2" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/24/25</v>
+        <v>04/25/25</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
@@ -747,7 +747,7 @@
       </c>
       <c r="D3" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/24/25</v>
+        <v>04/25/25</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -759,16 +759,16 @@
         <v>28</v>
       </c>
       <c r="H3">
-        <v>1234</v>
+        <v>6789</v>
       </c>
       <c r="I3">
-        <v>1234</v>
+        <v>6789</v>
       </c>
       <c r="J3">
-        <v>1234</v>
+        <v>6789</v>
       </c>
       <c r="K3">
-        <v>1234</v>
+        <v>6789</v>
       </c>
       <c r="L3" t="s">
         <v>29</v>
@@ -781,14 +781,14 @@
       </c>
       <c r="O3" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/24/25</v>
+        <v>04/25/25</v>
       </c>
       <c r="P3" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/24/25</v>
+        <v>04/25/25</v>
       </c>
       <c r="R3">
         <v>100</v>
@@ -798,7 +798,7 @@
       </c>
       <c r="T3" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/24/25</v>
+        <v>04/25/25</v>
       </c>
       <c r="U3" t="s">
         <v>30</v>
@@ -817,11 +817,11 @@
       </c>
       <c r="Z3" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/24/25</v>
+        <v>04/25/25</v>
       </c>
       <c r="AA3" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/24/25</v>
+        <v>04/25/25</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/resources/AP_TestData.xlsx
+++ b/src/test/java/resources/AP_TestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpanchal\IdeaProjects\FusionInternalProject\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBF8D46-D2EE-4707-B229-DEEFD442366A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FE6D26-B4D4-45AE-A47C-F78023B6252D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFB41541-69CB-4A6D-BB8E-FE5ADF235096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AFB41541-69CB-4A6D-BB8E-FE5ADF235096}"/>
   </bookViews>
   <sheets>
     <sheet name="P2P" sheetId="1" r:id="rId1"/>
+    <sheet name="CreateManualInvoiceWithPayment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>itemName</t>
   </si>
@@ -153,6 +154,45 @@
   </si>
   <si>
     <t>billOfLading</t>
+  </si>
+  <si>
+    <t>invoiceAmount</t>
+  </si>
+  <si>
+    <t>paymentTerms</t>
+  </si>
+  <si>
+    <t>liabilityDistribution</t>
+  </si>
+  <si>
+    <t>ledger</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>IT Convergence USA</t>
+  </si>
+  <si>
+    <t>ADVANZ101 BUSINESS SYSTEMS INC</t>
+  </si>
+  <si>
+    <t>01.000.201100.00.000.00000.000000.000000</t>
+  </si>
+  <si>
+    <t>ITC USA PL</t>
+  </si>
+  <si>
+    <t>Action Capital # ZAITC-90</t>
+  </si>
+  <si>
+    <t>Electronic</t>
+  </si>
+  <si>
+    <t>ANSI X12 820</t>
+  </si>
+  <si>
+    <t>Payments</t>
   </si>
 </sst>
 </file>
@@ -533,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68003E9C-3D59-458D-9865-8AC5272D06CC}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +698,7 @@
       </c>
       <c r="D2" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/25/25</v>
+        <v>04/26/25</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -692,14 +732,14 @@
       </c>
       <c r="O2" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/25/25</v>
+        <v>04/26/25</v>
       </c>
       <c r="P2" t="s">
         <v>31</v>
       </c>
       <c r="Q2" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/25/25</v>
+        <v>04/26/25</v>
       </c>
       <c r="R2">
         <v>50</v>
@@ -709,7 +749,7 @@
       </c>
       <c r="T2" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/25/25</v>
+        <v>04/26/25</v>
       </c>
       <c r="U2" t="s">
         <v>30</v>
@@ -728,11 +768,11 @@
       </c>
       <c r="Z2" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/25/25</v>
+        <v>04/26/25</v>
       </c>
       <c r="AA2" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/25/25</v>
+        <v>04/26/25</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
@@ -747,7 +787,7 @@
       </c>
       <c r="D3" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/25/25</v>
+        <v>04/26/25</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -781,14 +821,14 @@
       </c>
       <c r="O3" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/25/25</v>
+        <v>04/26/25</v>
       </c>
       <c r="P3" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/25/25</v>
+        <v>04/26/25</v>
       </c>
       <c r="R3">
         <v>100</v>
@@ -798,7 +838,7 @@
       </c>
       <c r="T3" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/25/25</v>
+        <v>04/26/25</v>
       </c>
       <c r="U3" t="s">
         <v>30</v>
@@ -817,11 +857,129 @@
       </c>
       <c r="Z3" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/25/25</v>
+        <v>04/26/25</v>
       </c>
       <c r="AA3" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/25/25</v>
+        <v>04/26/25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21EDFDC-2E55-4689-8949-EF59245C7753}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="38.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/resources/AP_TestData.xlsx
+++ b/src/test/java/resources/AP_TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpanchal\IdeaProjects\FusionInternalProject\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FE6D26-B4D4-45AE-A47C-F78023B6252D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58B7836-851F-451B-883A-32732111A8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AFB41541-69CB-4A6D-BB8E-FE5ADF235096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFB41541-69CB-4A6D-BB8E-FE5ADF235096}"/>
   </bookViews>
   <sheets>
     <sheet name="P2P" sheetId="1" r:id="rId1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68003E9C-3D59-458D-9865-8AC5272D06CC}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +698,7 @@
       </c>
       <c r="D2" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/26/25</v>
+        <v>05/04/25</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -732,14 +732,14 @@
       </c>
       <c r="O2" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/26/25</v>
+        <v>05/04/25</v>
       </c>
       <c r="P2" t="s">
         <v>31</v>
       </c>
       <c r="Q2" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/26/25</v>
+        <v>05/04/25</v>
       </c>
       <c r="R2">
         <v>50</v>
@@ -749,7 +749,7 @@
       </c>
       <c r="T2" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/26/25</v>
+        <v>05/04/25</v>
       </c>
       <c r="U2" t="s">
         <v>30</v>
@@ -768,11 +768,11 @@
       </c>
       <c r="Z2" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/26/25</v>
+        <v>05/04/25</v>
       </c>
       <c r="AA2" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/26/25</v>
+        <v>05/04/25</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
@@ -787,7 +787,7 @@
       </c>
       <c r="D3" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/26/25</v>
+        <v>05/04/25</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -821,14 +821,14 @@
       </c>
       <c r="O3" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/26/25</v>
+        <v>05/04/25</v>
       </c>
       <c r="P3" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/26/25</v>
+        <v>05/04/25</v>
       </c>
       <c r="R3">
         <v>100</v>
@@ -838,7 +838,7 @@
       </c>
       <c r="T3" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/26/25</v>
+        <v>05/04/25</v>
       </c>
       <c r="U3" t="s">
         <v>30</v>
@@ -857,11 +857,11 @@
       </c>
       <c r="Z3" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/26/25</v>
+        <v>05/04/25</v>
       </c>
       <c r="AA3" s="1" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>04/26/25</v>
+        <v>05/04/25</v>
       </c>
     </row>
   </sheetData>
@@ -873,7 +873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21EDFDC-2E55-4689-8949-EF59245C7753}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
